--- a/doc/方案成本估算.xlsx
+++ b/doc/方案成本估算.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\gw_health\somi\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\somi\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C1B5B8-83DE-4A6A-8229-D398298B8628}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9EC8E1-6F93-4DA5-8773-E9070AD50A83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="研发成本" sheetId="4" r:id="rId1"/>
-    <sheet name="网络服务成本" sheetId="2" r:id="rId2"/>
-    <sheet name="研发成本估计" sheetId="5" r:id="rId3"/>
+    <sheet name="研发成本整体" sheetId="5" r:id="rId1"/>
+    <sheet name="患者版本" sheetId="6" r:id="rId2"/>
+    <sheet name="CFDA认证用版本" sheetId="7" r:id="rId3"/>
+    <sheet name="网络服务成本" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="121">
   <si>
     <t>云服务器</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -189,14 +190,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>APP请求数据量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>APP请求频率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>KB</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -393,6 +386,138 @@
   </si>
   <si>
     <t>TBD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总人天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总人月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间周期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 ~ 5个月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/4/14讨论：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要输入：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法务（免责、GDPR合规）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬件接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入功能：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置屏幕状态（多长时间休眠）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警：设备蜂鸣或者灯光闪烁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLE协议配对、加密、解析获取数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>血氧算法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2个月左右</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>云硬盘存储</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>包年包月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按量计费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5 元/GB * 月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0009元/GB * 小时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP发送数据量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP发送频率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP发送每天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP接收每天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计每用户每天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十万用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五十万用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>百万用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日均存储(GB)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>月存储(GB)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储年租金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 ~ 8个月</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -400,7 +525,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,6 +564,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -528,7 +664,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -550,22 +686,19 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -587,6 +720,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -868,558 +1019,159 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{652B373E-8C78-4494-A7E7-8897C2F3E6EC}">
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.625" customWidth="1"/>
-    <col min="2" max="5" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" customWidth="1"/>
+    <col min="3" max="3" width="39.90625" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="3" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="7">
-        <v>5</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="11">
-        <v>3</v>
-      </c>
-      <c r="E4" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="11">
-        <v>3</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11">
-        <v>5</v>
-      </c>
-      <c r="E5" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="7">
-        <v>5</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7">
-        <v>10</v>
-      </c>
-      <c r="E6" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="7">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7">
-        <v>10</v>
-      </c>
-      <c r="E7" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="7">
-        <v>10</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7">
-        <v>15</v>
-      </c>
-      <c r="E8" s="7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="11">
-        <v>5</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11">
-        <v>10</v>
-      </c>
-      <c r="E9" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="11">
-        <v>5</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11">
-        <v>10</v>
-      </c>
-      <c r="E10" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="7">
-        <v>20</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="11">
-        <v>3</v>
-      </c>
-      <c r="C12" s="10">
-        <v>3</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="11">
-        <v>3</v>
-      </c>
-      <c r="C13" s="10">
-        <v>3</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="11">
-        <v>3</v>
-      </c>
-      <c r="C14" s="10">
-        <v>3</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="11">
-        <v>3</v>
-      </c>
-      <c r="C15" s="11">
-        <v>3</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="13"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="14"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A2:E22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="5" width="10.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="5">
-        <v>1</v>
-      </c>
-      <c r="C17" s="5">
-        <v>2</v>
-      </c>
-      <c r="D17" s="5">
-        <v>3</v>
-      </c>
-      <c r="E17" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{652B373E-8C78-4494-A7E7-8897C2F3E6EC}">
-  <dimension ref="A1:F39"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="11.75" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="41.375" customWidth="1"/>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>47</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D2" s="1">
         <v>3</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <f>SUM(D2:D11)</f>
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1">
         <v>5</v>
       </c>
-      <c r="E3" s="16"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
       </c>
-      <c r="E4" s="16"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5" s="1">
         <v>5</v>
       </c>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
       </c>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D7" s="1">
         <v>10</v>
       </c>
-      <c r="E7" s="16"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D8" s="1">
         <v>5</v>
       </c>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
       </c>
-      <c r="E9" s="16"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10" s="1">
         <v>5</v>
       </c>
-      <c r="E10" s="16"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D11" s="1">
         <v>5</v>
       </c>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="16"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D12" s="1">
         <v>47</v>
@@ -1428,13 +1180,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="16"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D13" s="1">
         <v>47</v>
@@ -1443,13 +1195,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="16"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D14" s="1">
         <v>47</v>
@@ -1458,86 +1210,86 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>47</v>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D15" s="1">
         <v>3</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="16">
         <f>SUM(D15:D20)</f>
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D16" s="1">
         <v>5</v>
       </c>
-      <c r="E16" s="18"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D17" s="1">
         <v>5</v>
       </c>
-      <c r="E17" s="18"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D18" s="1">
         <v>5</v>
       </c>
-      <c r="E18" s="18"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="1">
         <v>10</v>
       </c>
-      <c r="E19" s="18"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
+      <c r="E19" s="17"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D20" s="1">
         <v>10</v>
       </c>
-      <c r="E20" s="19"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="16"/>
+      <c r="E20" s="18"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
       <c r="B21" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D21" s="1">
         <v>38</v>
@@ -1546,13 +1298,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="16"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
       <c r="B22" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D22" s="1">
         <v>38</v>
@@ -1561,70 +1313,70 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="16" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
         <v>49</v>
       </c>
+      <c r="B23" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="C23" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D23" s="1">
         <v>3</v>
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D24" s="1">
         <v>5</v>
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" s="1">
         <v>3</v>
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D26" s="1">
         <v>5</v>
       </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D27" s="1">
         <v>10</v>
       </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D28" s="1">
         <v>10</v>
@@ -1634,73 +1386,73 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="16" t="s">
-        <v>65</v>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D29" s="1">
         <v>5</v>
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="16"/>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D30" s="1">
         <v>5</v>
       </c>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="16"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D31" s="1">
         <v>20</v>
       </c>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="16"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E32" s="1">
         <f>SUM(D29:D31)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="16" t="s">
-        <v>52</v>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D33" s="1">
         <v>9</v>
       </c>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="16"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D34" s="1">
         <v>5</v>
@@ -1709,67 +1461,87 @@
         <f>SUM(D33:D34)</f>
         <v>14</v>
       </c>
-      <c r="F34">
-        <f>SUM(E2:E34)</f>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="16"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+      <c r="B36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="15"/>
+      <c r="B39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D40" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="10">
+        <f>SUM(E2:E39)</f>
         <v>382</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D35" s="17" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D41" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E35" s="17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="16"/>
-      <c r="B36" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="16"/>
-      <c r="B37" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="16"/>
-      <c r="B38" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="16"/>
-      <c r="B39" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
+      <c r="E41" s="19">
+        <f>SUM(E40/21)</f>
+        <v>18.19047619047619</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D42" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>120</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1791,4 +1563,886 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7C6054-B55E-477B-B78A-D9E00A6F2910}">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.6328125" customWidth="1"/>
+    <col min="2" max="5" width="19.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="10">
+        <v>5</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10">
+        <v>3</v>
+      </c>
+      <c r="E4" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="10">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10">
+        <v>5</v>
+      </c>
+      <c r="E5" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="10">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10">
+        <v>10</v>
+      </c>
+      <c r="E6" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="10">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10">
+        <v>10</v>
+      </c>
+      <c r="E7" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="10">
+        <v>10</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10">
+        <v>10</v>
+      </c>
+      <c r="E8" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="10">
+        <v>5</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10">
+        <v>10</v>
+      </c>
+      <c r="E9" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="10">
+        <v>5</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10">
+        <v>10</v>
+      </c>
+      <c r="E10" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="10">
+        <v>15</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="10">
+        <v>3</v>
+      </c>
+      <c r="C12" s="9">
+        <v>3</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="10">
+        <v>3</v>
+      </c>
+      <c r="C13" s="9">
+        <v>3</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="10">
+        <v>3</v>
+      </c>
+      <c r="C14" s="9">
+        <v>3</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="10">
+        <v>3</v>
+      </c>
+      <c r="C15" s="10">
+        <v>3</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="10">
+        <f>SUM(B4:E15)</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="19">
+        <f>SUM(E16/21)</f>
+        <v>9.0476190476190474</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="B22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
+      <c r="B23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A21:A23"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032DB1BC-FB6B-45D3-817E-D3835F653BD1}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.6328125" customWidth="1"/>
+    <col min="2" max="5" width="19.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="10">
+        <v>5</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="21">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="10">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="21">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="10">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="21">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="10">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="21">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="10">
+        <v>10</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="21">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="10">
+        <v>5</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="21">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="10">
+        <v>5</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="21">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="21">
+        <v>5</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="10">
+        <v>3</v>
+      </c>
+      <c r="C12" s="9">
+        <v>3</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="21">
+        <v>0</v>
+      </c>
+      <c r="C13" s="22">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="21">
+        <v>0</v>
+      </c>
+      <c r="C14" s="22">
+        <v>0</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="21">
+        <v>0</v>
+      </c>
+      <c r="C15" s="22">
+        <v>0</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="10">
+        <f>SUM(B4:E15)</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="19">
+        <f>SUM(E16/21)</f>
+        <v>4.9523809523809526</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42306412-552D-4434-8DB6-94CB4F18D99F}">
+  <dimension ref="A2:E30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.54296875" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15">
+        <v>0.2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17">
+        <f>0.2*24*60</f>
+        <v>288.00000000000006</v>
+      </c>
+      <c r="C17">
+        <f>0.2*24*60</f>
+        <v>288.00000000000006</v>
+      </c>
+      <c r="D17">
+        <f>0.2*24*60</f>
+        <v>288.00000000000006</v>
+      </c>
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18">
+        <v>300</v>
+      </c>
+      <c r="C18">
+        <v>300</v>
+      </c>
+      <c r="D18">
+        <v>300</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19">
+        <f>B17+B18</f>
+        <v>588</v>
+      </c>
+      <c r="C19">
+        <f>C17+C18</f>
+        <v>588</v>
+      </c>
+      <c r="D19">
+        <f>D17+D18</f>
+        <v>588</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2</v>
+      </c>
+      <c r="D22" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="1">
+        <v>100000</v>
+      </c>
+      <c r="C24" s="1">
+        <v>500000</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="1">
+        <f>B19*B24/1000000</f>
+        <v>58.8</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" ref="C25:D25" si="0">C19*C24/1000000</f>
+        <v>294</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>588</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="1">
+        <f>B25*0.8</f>
+        <v>47.04</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" ref="C26:D26" si="1">C25*0.8</f>
+        <v>235.20000000000002</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="1"/>
+        <v>470.40000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="24">
+        <f>B26*365</f>
+        <v>17169.599999999999</v>
+      </c>
+      <c r="C27" s="24">
+        <f t="shared" ref="C27:D27" si="2">C26*365</f>
+        <v>85848</v>
+      </c>
+      <c r="D27" s="24">
+        <f t="shared" si="2"/>
+        <v>171696</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="1">
+        <f>B17*B24/1000000</f>
+        <v>28.800000000000008</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" ref="C28:D28" si="3">C17*C24/1000000</f>
+        <v>144.00000000000003</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="3"/>
+        <v>288.00000000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="1">
+        <f>B28*30</f>
+        <v>864.00000000000023</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" ref="C29:D29" si="4">C28*30</f>
+        <v>4320.0000000000009</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="4"/>
+        <v>8640.0000000000018</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" s="24">
+        <f>B29*SUM(1,2,3,4,5,6,7,8,9,10,11,12)*0.5</f>
+        <v>33696.000000000007</v>
+      </c>
+      <c r="C30" s="24">
+        <f t="shared" ref="C30:D30" si="5">C29*SUM(1,2,3,4,5,6,7,8,9,10,11,12)*0.5</f>
+        <v>168480.00000000003</v>
+      </c>
+      <c r="D30" s="24">
+        <f t="shared" si="5"/>
+        <v>336960.00000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>